--- a/data/long_razon/P23_5-Urba-long_razon.xlsx
+++ b/data/long_razon/P23_5-Urba-long_razon.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-43,31%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>52,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-8,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>67,38%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-28,82%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>60,26%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-61,25; -19,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8,98; 142,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-34,37; 22,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>28,12; 125,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-44,59; -10,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>25,88; 103,63</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -681,32 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,75%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-36,13%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-18,97%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>42,39%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-9,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-4,09%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -719,32 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-38,14; 47,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-55,46; -6,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-40,86; 13,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,4; 86,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-32,06; 14,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-24,36; 22,61</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -761,32 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>35,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-12,55%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-32,18%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>61,18%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-5,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>19,77%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -799,32 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-44,73; 223,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-59,27; 87,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-61,64; 23,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,34; 202,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-43,16; 58,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-29,18; 85,12</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -841,32 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-20,53%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,91%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-16,69%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>56,7%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-18,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>25,95%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -879,42 +1015,64 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-39,92; 3,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-23,26; 32,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-32,64; 2,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>29,99; 93,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-31,91; -4,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,18; 47,57</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>

--- a/data/long_razon/P23_5-Urba-long_razon.xlsx
+++ b/data/long_razon/P23_5-Urba-long_razon.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +140,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +509,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -630,329 +635,217 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-0.4795036223749618</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.4787156897681192</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.1018447232364207</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-0.08812135915753176</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>0.5847898556484837</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>0.003448337833876997</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>-0.3211024046156347</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>0.5360995989547734</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <v>0.04835700221729453</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-0.66324197334443</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>0.03504975428494981</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.2357198542728841</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-0.3501279646771544</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>0.2047731956666735</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-0.2353197758403152</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>-0.4762352375233973</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>0.2203950940551435</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>-0.195784285681625</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>-0.2558942242599189</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>1.283752837172736</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>0.6415785391819211</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>0.2104311849651794</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>1.101822657137147</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>0.3729960371446672</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>-0.127550927714533</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>0.958109884235434</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <v>0.3244538166852616</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>0.03048194689312322</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-0.3690055961892978</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.4406448093148016</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-0.1929533174330525</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>0.3718470093912246</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>-0.1917259711025063</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>-0.09110082431476704</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>-0.0616310329109087</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>0.0908357127154712</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-0.3148696591115667</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-0.5665956722119232</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.09390510449660548</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-0.4155144011766131</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>0.03502067915053932</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-0.441168918766463</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>-0.3083819573717129</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>-0.2716247721476293</v>
+      </c>
+      <c r="K8" s="5" t="n">
+        <v>-0.1775779978620796</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>0.5557001475413421</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>-0.0946062287497822</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>1.234866326849714</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.1590674244064275</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0.8314929505337908</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>0.1545908838090842</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>0.2059860806162139</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>0.2009923320016464</v>
+      </c>
+      <c r="K9" s="5" t="n">
+        <v>0.4735709224628004</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -960,107 +853,215 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>0.3652773293853365</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-0.1082578506396629</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-0.4952316117079804</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-0.3286634049761924</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>0.5095956990980127</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>-0.3390884760768931</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>-0.061855069762487</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <v>0.1743156332357445</v>
+      </c>
+      <c r="K10" s="5" t="n">
+        <v>-0.4324822380153492</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-0.3893585619131013</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.669146533431373</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.8360370671820829</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-0.6278679828457959</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-0.1226693428710895</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>-0.6859300888170473</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>-0.4121354310321375</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>-0.2829594551434473</v>
+      </c>
+      <c r="K11" s="5" t="n">
+        <v>-0.7121808268249225</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>2.625115462579401</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>0.7528832742049791</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>0.3318468708728512</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>0.2280724379055203</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>1.719845937743323</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>0.3602551087068576</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>0.6102324253359788</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>0.8607410319910872</v>
+      </c>
+      <c r="K12" s="5" t="n">
+        <v>0.04527141322173452</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>-0.2320055740376979</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-0.02399044819329036</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.1048201443121919</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-0.1710966400070786</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>0.4910789524699181</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>-0.1173670172236085</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>-0.2025594638449502</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>0.2198149491833677</v>
+      </c>
+      <c r="K13" s="5" t="n">
+        <v>-0.01177046382683472</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-0.410205874296131</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.261450701415128</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.1786230798009973</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-0.3302843018796688</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>0.2507330273281459</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-0.2802421553319349</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>-0.34320320007151</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>0.0441775649392109</v>
+      </c>
+      <c r="K14" s="5" t="n">
+        <v>-0.1765537341492517</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>-0.005697400447952921</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.2750833043859491</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.4908820295901333</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0.0223570601535489</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>0.8239545930121834</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>0.09351107797922843</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>-0.06532445169447097</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>0.4492869718640298</v>
+      </c>
+      <c r="K15" s="5" t="n">
+        <v>0.197125339188393</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1069,13 +1070,13 @@
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
